--- a/horaris_generats/Malgrat_de_mar_horari.xlsx
+++ b/horaris_generats/Malgrat_de_mar_horari.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t xml:space="preserve">station</t>
   </si>
@@ -32,16 +32,37 @@
     <t xml:space="preserve">MALGRAT DE MAR</t>
   </si>
   <si>
-    <t xml:space="preserve">06:00</t>
+    <t xml:space="preserve">00:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maçanet-Massanes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l'Hospitalet Central</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:03</t>
   </si>
   <si>
     <t xml:space="preserve">R1A.001</t>
   </si>
   <si>
-    <t xml:space="preserve">R1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maçanet-Massanes</t>
+    <t xml:space="preserve">06:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.037</t>
   </si>
   <si>
     <t xml:space="preserve">06:43</t>
@@ -50,67 +71,406 @@
     <t xml:space="preserve">R1A.002</t>
   </si>
   <si>
-    <t xml:space="preserve">l'Hospitalet de Llobregat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09:00</t>
+    <t xml:space="preserve">07:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:03</t>
   </si>
   <si>
     <t xml:space="preserve">R1A.003</t>
   </si>
   <si>
+    <t xml:space="preserve">09:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.062</t>
+  </si>
+  <si>
     <t xml:space="preserve">09:43</t>
   </si>
   <si>
     <t xml:space="preserve">R1A.004</t>
   </si>
   <si>
-    <t xml:space="preserve">12:00</t>
+    <t xml:space="preserve">10:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:03</t>
   </si>
   <si>
     <t xml:space="preserve">R1A.005</t>
   </si>
   <si>
+    <t xml:space="preserve">12:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.064</t>
+  </si>
+  <si>
     <t xml:space="preserve">12:43</t>
   </si>
   <si>
     <t xml:space="preserve">R1A.006</t>
   </si>
   <si>
-    <t xml:space="preserve">15:00</t>
+    <t xml:space="preserve">13:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:03</t>
   </si>
   <si>
     <t xml:space="preserve">R1A.007</t>
   </si>
   <si>
+    <t xml:space="preserve">15:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.066</t>
+  </si>
+  <si>
     <t xml:space="preserve">15:43</t>
   </si>
   <si>
     <t xml:space="preserve">R1A.008</t>
   </si>
   <si>
-    <t xml:space="preserve">18:00</t>
+    <t xml:space="preserve">16:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:03</t>
   </si>
   <si>
     <t xml:space="preserve">R1A.009</t>
   </si>
   <si>
+    <t xml:space="preserve">18:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.068</t>
+  </si>
+  <si>
     <t xml:space="preserve">18:43</t>
   </si>
   <si>
     <t xml:space="preserve">R1A.010</t>
   </si>
   <si>
-    <t xml:space="preserve">21:00</t>
+    <t xml:space="preserve">19:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:03</t>
   </si>
   <si>
     <t xml:space="preserve">R1A.011</t>
   </si>
   <si>
+    <t xml:space="preserve">21:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.070</t>
+  </si>
+  <si>
     <t xml:space="preserve">21:43</t>
   </si>
   <si>
     <t xml:space="preserve">R1A.012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1A.060</t>
   </si>
 </sst>
 </file>
@@ -541,7 +901,7 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -558,7 +918,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -575,7 +935,7 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -592,7 +952,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -609,7 +969,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -626,7 +986,7 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -643,7 +1003,7 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -660,17 +1020,1037 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" t="s">
+        <v>124</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67" t="s">
+        <v>140</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>141</v>
+      </c>
+      <c r="C68" t="s">
+        <v>142</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" t="s">
+        <v>146</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" t="s">
+        <v>148</v>
+      </c>
+      <c r="D71" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72" t="s">
+        <v>150</v>
+      </c>
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" t="s">
+        <v>152</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
